--- a/Jupyter Notebook/BTC Anlys 20180428 satisfaction r value only version 02.xlsx
+++ b/Jupyter Notebook/BTC Anlys 20180428 satisfaction r value only version 02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bryan/Dropbox/GitHub/spring-2018-final-projects-bretbryan-wt/Jupyter Notebook/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bwmcs\OneDrive\Documents\GitHub\spring-2018-final-projects-bretbryan-wt\Jupyter Notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF6999DE-CD85-3B4A-99B8-4FCA027B767F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CD0201-86B0-45FC-B878-AB86C68193A2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="24600" windowHeight="15540" xr2:uid="{D5192360-7406-454D-866B-A8A89EF9EB09}"/>
+    <workbookView xWindow="60" yWindow="456" windowWidth="24600" windowHeight="15540" xr2:uid="{D5192360-7406-454D-866B-A8A89EF9EB09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet6" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="79">
   <si>
     <t>Q03_I_would_describe_myself_asResourceful</t>
   </si>
@@ -241,6 +241,27 @@
   </si>
   <si>
     <t>Q37</t>
+  </si>
+  <si>
+    <t>Question Group</t>
+  </si>
+  <si>
+    <t>Self_Reported</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>Safety</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>Staff</t>
   </si>
 </sst>
 </file>
@@ -592,15 +613,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DC7524-5207-8246-A500-7AB0D549B40E}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D36"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="49.296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -608,13 +632,16 @@
         <v>34</v>
       </c>
       <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2.8895123116067099E-2</v>
       </c>
@@ -622,13 +649,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
         <v>37</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5.529727635313051E-2</v>
       </c>
@@ -636,13 +666,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>9.9827153718033926E-2</v>
       </c>
@@ -650,13 +683,16 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
         <v>39</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.10430180086817394</v>
       </c>
@@ -664,13 +700,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
         <v>40</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.1233466031514055</v>
       </c>
@@ -678,13 +717,16 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.14581131994321606</v>
       </c>
@@ -692,13 +734,16 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
         <v>42</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.1867657417430984</v>
       </c>
@@ -706,13 +751,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
         <v>43</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.19640183314582818</v>
       </c>
@@ -720,13 +768,16 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
         <v>44</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.20226586181247008</v>
       </c>
@@ -734,13 +785,16 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
         <v>45</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.22081652336139321</v>
       </c>
@@ -748,13 +802,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
         <v>46</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.29286512340465282</v>
       </c>
@@ -762,13 +819,16 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
         <v>47</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.30525648354024904</v>
       </c>
@@ -776,13 +836,16 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
         <v>48</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.30669187615820065</v>
       </c>
@@ -790,13 +853,16 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
         <v>49</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.3132156708043034</v>
       </c>
@@ -804,13 +870,16 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
         <v>50</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.3186510027262765</v>
       </c>
@@ -818,13 +887,16 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
         <v>51</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.33917794718479954</v>
       </c>
@@ -832,13 +904,16 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
         <v>52</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.36635231482664288</v>
       </c>
@@ -846,13 +921,16 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
         <v>53</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.38164636521299561</v>
       </c>
@@ -860,13 +938,16 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
         <v>54</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.38342211431296597</v>
       </c>
@@ -874,13 +955,16 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s">
         <v>55</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.42715031168230372</v>
       </c>
@@ -888,13 +972,16 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" t="s">
         <v>56</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.43450035727485464</v>
       </c>
@@ -902,13 +989,16 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" t="s">
         <v>57</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.44546663426536642</v>
       </c>
@@ -916,13 +1006,16 @@
         <v>16</v>
       </c>
       <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" t="s">
         <v>58</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.49423904863614904</v>
       </c>
@@ -930,13 +1023,16 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" t="s">
         <v>59</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.50038696561798757</v>
       </c>
@@ -944,13 +1040,16 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" t="s">
         <v>60</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.50502926062556819</v>
       </c>
@@ -958,13 +1057,16 @@
         <v>15</v>
       </c>
       <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" t="s">
         <v>61</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.52265125625443176</v>
       </c>
@@ -972,13 +1074,16 @@
         <v>18</v>
       </c>
       <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
         <v>62</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.52641017794903955</v>
       </c>
@@ -986,13 +1091,16 @@
         <v>63</v>
       </c>
       <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" t="s">
         <v>64</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0.57116042756256213</v>
       </c>
@@ -1000,13 +1108,16 @@
         <v>14</v>
       </c>
       <c r="C29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" t="s">
         <v>65</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0.59835375617148834</v>
       </c>
@@ -1014,13 +1125,16 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" t="s">
         <v>66</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0.60762130404666315</v>
       </c>
@@ -1028,13 +1142,16 @@
         <v>12</v>
       </c>
       <c r="C31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" t="s">
         <v>67</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0.62761217459174834</v>
       </c>
@@ -1042,13 +1159,16 @@
         <v>29</v>
       </c>
       <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" t="s">
         <v>68</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0.65431009760970826</v>
       </c>
@@ -1056,13 +1176,16 @@
         <v>13</v>
       </c>
       <c r="C33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" t="s">
         <v>69</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0.68593788400257893</v>
       </c>
@@ -1070,13 +1193,16 @@
         <v>17</v>
       </c>
       <c r="C34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" t="s">
         <v>70</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0.71425841761180431</v>
       </c>
@@ -1084,13 +1210,16 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" t="s">
         <v>71</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0.71425841761180431</v>
       </c>
@@ -1098,14 +1227,17 @@
         <v>30</v>
       </c>
       <c r="C36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" t="s">
         <v>53</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C39">
+  <sortState ref="A2:D39">
     <sortCondition ref="A2:A39"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
